--- a/NOVO.xlsx
+++ b/NOVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Artigos\Artigo_ELECTRE-TREE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Code\git\teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE5CC7B-E534-4A91-A5E4-5E0F4230411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0B011-8A7F-4B2F-A948-98399ADCE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7795AF12-6443-4822-A103-DFC35C82B495}"/>
   </bookViews>
@@ -49,18 +49,12 @@
     <t>Score_Global_EF</t>
   </si>
   <si>
-    <t>PIB (Bilhões, PPP)</t>
-  </si>
-  <si>
     <t>1/Desemprego</t>
   </si>
   <si>
     <t>Imposto_de_Renda</t>
   </si>
   <si>
-    <t>1/Inflação</t>
-  </si>
-  <si>
     <t>Cresc_PIB_perCapita</t>
   </si>
   <si>
@@ -70,21 +64,12 @@
     <t>Despesas_Educ(%PIB)</t>
   </si>
   <si>
-    <t>Taxa_Alfabetização</t>
-  </si>
-  <si>
     <t>Despesas_P&amp;D (%PIB)</t>
   </si>
   <si>
-    <t>Import_Bens_Serviços(%PIB)</t>
-  </si>
-  <si>
     <t>GINI</t>
   </si>
   <si>
-    <t>1/População_favelas</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -455,6 +440,21 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>1/Infl</t>
+  </si>
+  <si>
+    <t>Taxa_Alfabet</t>
+  </si>
+  <si>
+    <t>Import_Bens_Serv(%PIB)</t>
+  </si>
+  <si>
+    <t>1/Pop_favelas</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08534FCA-8846-41AC-9BDF-8E58B841C3AC}">
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,45 +846,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-0.44094100000000003</v>
@@ -926,7 +928,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>-1.027936</v>
@@ -970,7 +972,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>-1.48702</v>
@@ -1020,7 +1022,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>-0.24385699999999999</v>
@@ -1070,7 +1072,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>-0.26970300000000003</v>
@@ -1120,7 +1122,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>-0.45416200000000001</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1.7715019999999999</v>
@@ -1208,7 +1210,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>-1.1912879999999999</v>
@@ -1252,7 +1254,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>-0.88344</v>
@@ -1299,7 +1301,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.83092900000000003</v>
@@ -1349,7 +1351,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1.2114819999999999</v>
@@ -1393,7 +1395,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>-0.83194999999999997</v>
@@ -1434,7 +1436,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0.72676700000000005</v>
@@ -1481,7 +1483,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>-0.79106600000000005</v>
@@ -1528,7 +1530,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0.102134</v>
@@ -1578,7 +1580,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0.52850900000000001</v>
@@ -1625,7 +1627,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>-0.93234499999999998</v>
@@ -1675,7 +1677,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>-0.49744300000000002</v>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>-1.5273049999999999</v>
@@ -1769,7 +1771,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0.69295099999999998</v>
@@ -1816,7 +1818,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>-0.20660100000000001</v>
@@ -1866,7 +1868,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1.3455619999999999</v>
@@ -1913,7 +1915,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>8.9482000000000006E-2</v>
@@ -1963,7 +1965,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>-1.339828</v>
@@ -2007,7 +2009,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>-1.37599</v>
@@ -2051,7 +2053,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0.38409799999999999</v>
@@ -2101,7 +2103,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>-1.1126560000000001</v>
@@ -2148,7 +2150,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0.86851100000000003</v>
@@ -2195,7 +2197,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>-0.69288899999999998</v>
@@ -2236,7 +2238,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0.32018400000000002</v>
@@ -2283,7 +2285,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>1.802727</v>
@@ -2327,7 +2329,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>1.0987039999999999</v>
@@ -2374,7 +2376,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>-0.18310599999999999</v>
@@ -2421,7 +2423,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>-1.109666</v>
@@ -2468,7 +2470,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>-0.146508</v>
@@ -2515,7 +2517,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>9.4866000000000006E-2</v>
@@ -2565,7 +2567,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0.91685000000000005</v>
@@ -2612,7 +2614,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>-2.7597E-2</v>
@@ -2659,7 +2661,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>-0.91815999999999998</v>
@@ -2709,7 +2711,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>1.475789</v>
@@ -2753,7 +2755,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>1.312219</v>
@@ -2797,7 +2799,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>-1.435454</v>
@@ -2844,7 +2846,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>-1.3925999999999999E-2</v>
@@ -2894,7 +2896,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>2.0655109999999999</v>
@@ -2941,7 +2943,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>-0.85363100000000003</v>
@@ -2988,7 +2990,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0.13408500000000001</v>
@@ -3038,7 +3040,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>-0.324376</v>
@@ -3088,7 +3090,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>-1.752985</v>
@@ -3132,7 +3134,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>-0.57247999999999999</v>
@@ -3182,7 +3184,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>1.632004</v>
@@ -3232,7 +3234,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0.46060800000000002</v>
@@ -3282,7 +3284,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>1.7736999999999999E-2</v>
@@ -3332,7 +3334,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>-0.34901100000000002</v>
@@ -3376,7 +3378,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>1.332997</v>
@@ -3420,7 +3422,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>1.2582169999999999</v>
@@ -3464,7 +3466,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>1.367583</v>
@@ -3511,7 +3513,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>-0.24426300000000001</v>
@@ -3555,7 +3557,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>-3.5603999999999997E-2</v>
@@ -3602,7 +3604,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>-0.31977100000000003</v>
@@ -3649,7 +3651,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>-0.30154700000000001</v>
@@ -3696,7 +3698,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>-0.76740399999999998</v>
@@ -3737,7 +3739,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>-0.64774399999999999</v>
@@ -3778,7 +3780,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>0.66913999999999996</v>
@@ -3825,7 +3827,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>4.4567000000000002E-2</v>
@@ -3872,7 +3874,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>-1.701514</v>
@@ -3913,7 +3915,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>0.78660099999999999</v>
@@ -3960,7 +3962,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>-0.95105600000000001</v>
@@ -4010,7 +4012,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>-0.94073700000000005</v>
@@ -4054,7 +4056,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>1.1152550000000001</v>
@@ -4101,7 +4103,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>-0.602993</v>
@@ -4151,7 +4153,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>-1.3698349999999999</v>
@@ -4198,7 +4200,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>-0.18804899999999999</v>
@@ -4245,7 +4247,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>1.3124020000000001</v>
@@ -4295,7 +4297,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>-0.156</v>
@@ -4345,7 +4347,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>-0.95565</v>
@@ -4395,7 +4397,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>-0.523393</v>
@@ -4439,7 +4441,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>-1.2527569999999999</v>
@@ -4489,7 +4491,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>-0.222108</v>
@@ -4539,7 +4541,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>1.110004</v>
@@ -4583,7 +4585,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>0.23424</v>
@@ -4624,7 +4626,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>-0.88043499999999997</v>
@@ -4674,7 +4676,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>-1.773231</v>
@@ -4715,7 +4717,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>4.0918999999999997E-2</v>
@@ -4762,7 +4764,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>0.55925100000000005</v>
@@ -4809,7 +4811,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>-0.44300299999999998</v>
@@ -4850,7 +4852,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>-0.66446300000000003</v>
@@ -4897,7 +4899,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>0.239367</v>
@@ -4947,7 +4949,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>-0.44703199999999998</v>
@@ -4997,7 +4999,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>-0.79522199999999998</v>
@@ -5047,7 +5049,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>0.94999800000000001</v>
@@ -5097,7 +5099,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>1.0793109999999999</v>
@@ -5144,7 +5146,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>0.631853</v>
@@ -5194,7 +5196,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>-0.42044199999999998</v>
@@ -5235,7 +5237,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>1.1991970000000001</v>
@@ -5285,7 +5287,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0.120892</v>
@@ -5329,7 +5331,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>0.62265099999999995</v>
@@ -5373,7 +5375,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>-0.80069100000000004</v>
@@ -5423,7 +5425,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>0.74738199999999999</v>
@@ -5473,7 +5475,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>1.9973810000000001</v>
@@ -5517,7 +5519,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101">
         <v>1.4478690000000001</v>
@@ -5561,7 +5563,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>1.6367160000000001</v>
@@ -5611,7 +5613,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>3.0669999999999999E-2</v>
@@ -5661,7 +5663,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0.80670200000000003</v>
@@ -5711,7 +5713,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>-0.245285</v>
@@ -5758,7 +5760,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>1.748605</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>2.1315230000000001</v>
@@ -5849,7 +5851,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B108">
         <v>-0.736788</v>
@@ -5896,7 +5898,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>-1.0031000000000001</v>
@@ -5946,7 +5948,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B110">
         <v>1.1459999999999999</v>
@@ -5996,7 +5998,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B111">
         <v>-0.95440599999999998</v>
@@ -6046,7 +6048,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B112">
         <v>0.129528</v>
@@ -6087,7 +6089,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B113">
         <v>0.35621900000000001</v>
@@ -6137,7 +6139,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B114">
         <v>0.61080699999999999</v>
@@ -6187,7 +6189,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B115">
         <v>-0.88649</v>
@@ -6237,7 +6239,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B116">
         <v>0.29666100000000001</v>
@@ -6287,7 +6289,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B117">
         <v>-0.43552800000000003</v>
@@ -6334,7 +6336,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B118">
         <v>1.551274</v>
@@ -6378,7 +6380,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B119">
         <v>1.56816</v>
@@ -6419,7 +6421,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B120">
         <v>1.3474E-2</v>
@@ -6466,7 +6468,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <v>-0.48334199999999999</v>
@@ -6513,7 +6515,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B122">
         <v>-1.493201</v>
@@ -6554,7 +6556,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>5.1980999999999999E-2</v>
@@ -6601,7 +6603,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>-0.71633500000000006</v>
@@ -6648,7 +6650,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>-0.91312700000000002</v>
